--- a/REFERENCE/Book1.xlsx
+++ b/REFERENCE/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owlbo\OneDrive\Documents\GitHub\SE104.I23\REFERENCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8DC2E8-5A81-44AC-97AA-57F917CF47E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách học sinh" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Điểm 15 phút</t>
   </si>
@@ -97,14 +98,26 @@
   </si>
   <si>
     <t>duc@gmail.com</t>
+  </si>
+  <si>
+    <t>hs00008</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>a@gmail.com</t>
+  </si>
+  <si>
+    <t>TPHCM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -144,17 +157,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -163,6 +173,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,125 +457,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="2" customWidth="1"/>
-    <col min="6" max="13" width="16.77734375" customWidth="1"/>
-    <col min="14" max="16" width="12.109375" customWidth="1"/>
+    <col min="1" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="6" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="16" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>36675</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>36675</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{CC6726F2-E858-4C55-981C-CB7C3AC3A323}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="7"/>
       <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -596,7 +637,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
